--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2794.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2794.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169172302164903</v>
+        <v>0.9858714938163757</v>
       </c>
       <c r="B1">
-        <v>2.437140410430691</v>
+        <v>1.773585915565491</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.945278167724609</v>
       </c>
       <c r="D1">
-        <v>2.365345902175587</v>
+        <v>1.323824167251587</v>
       </c>
       <c r="E1">
-        <v>1.232131504124828</v>
+        <v>1.29129421710968</v>
       </c>
     </row>
   </sheetData>
